--- a/data/trans_camb/POLIPATOLOGIA_Lim_2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_2-Dificultad-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.865539058782399</v>
+        <v>-2.585250980590077</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.141656814445762</v>
+        <v>7.913873972048638</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.742818239637366</v>
+        <v>-5.440964639356756</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.934064242700124</v>
+        <v>4.86010632346029</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.14959396025614</v>
+        <v>-2.868615899326125</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>8.376635708686992</v>
+        <v>8.475286106311986</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.933743866984768</v>
+        <v>3.905149873626773</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.30807627467144</v>
+        <v>17.71143930421023</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.760328388752805</v>
+        <v>2.172417385971587</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.56453706727639</v>
+        <v>13.57599999340393</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.124226515857498</v>
+        <v>2.485526636044592</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>14.90405642443236</v>
+        <v>15.17102443925022</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>0.04086944153294465</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.7633667604908093</v>
+        <v>0.763366760490809</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.04675642233098675</v>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1509331805952318</v>
+        <v>-0.1380924546117765</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.4248213292351896</v>
+        <v>0.4438756883765089</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1578931781528939</v>
+        <v>-0.1476444148554766</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1338179424549088</v>
+        <v>0.1372476537724182</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1142463171537646</v>
+        <v>-0.1060068286601393</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3069838580760435</v>
+        <v>0.3101238697814392</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2672775283571465</v>
+        <v>0.2538295799005887</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.111605847422764</v>
+        <v>1.165647095304398</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.08676655266038033</v>
+        <v>0.06662018139590739</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4239296720277562</v>
+        <v>0.4168441954175023</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08720510040755006</v>
+        <v>0.102089498001213</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6079474315415975</v>
+        <v>0.6227311542947297</v>
       </c>
     </row>
     <row r="10">
@@ -772,13 +772,13 @@
         <v>-3.20096161357524</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.2965763285668582</v>
+        <v>0.2965763285668527</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-4.743248628350328</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.980956678270848</v>
+        <v>4.980956678270837</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-4.041788057882389</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.849738590527912</v>
+        <v>-6.673806907452573</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.066378746956349</v>
+        <v>-3.562492983526295</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.897002110282369</v>
+        <v>-8.670828829400081</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.352678030781716</v>
+        <v>1.267478870390439</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.64277757197164</v>
+        <v>-6.837127717206696</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2708776393027271</v>
+        <v>0.2792932194459546</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1871870643404731</v>
+        <v>0.09304567929962387</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.923983494867783</v>
+        <v>3.774074630984718</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.01614459146687</v>
+        <v>-0.3079647451156351</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.778728353793907</v>
+        <v>8.619208871260641</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-1.296851064647718</v>
+        <v>-1.468495230185684</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.32145757047575</v>
+        <v>5.46662714299885</v>
       </c>
     </row>
     <row r="13">
@@ -850,13 +850,13 @@
         <v>-0.1782037707162623</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.0165109821472581</v>
+        <v>0.01651098214725779</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.1645673310320668</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.1728146278544269</v>
+        <v>0.1728146278544265</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1705419496233949</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3410077734918111</v>
+        <v>-0.3323377490594941</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1526911842663017</v>
+        <v>-0.1841982137435005</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2926594376502902</v>
+        <v>-0.2776825662466481</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.04097566747479967</v>
+        <v>0.04270455888671579</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2630112100204717</v>
+        <v>-0.2742936216343259</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009498594037991966</v>
+        <v>0.01070116627679515</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.01276299171794023</v>
+        <v>0.00569338010124783</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2516780483879748</v>
+        <v>0.2315638120633398</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.03813817896218252</v>
+        <v>-0.01116564303335469</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3233146852015059</v>
+        <v>0.3261005878936523</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.05645643929996184</v>
+        <v>-0.06418546097655553</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2397226525802602</v>
+        <v>0.2429287157202766</v>
       </c>
     </row>
     <row r="16">
@@ -938,7 +938,7 @@
         <v>-4.265131317099483</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.347929591138881</v>
+        <v>2.347929591138875</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-4.703530138974807</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-8.463710426431172</v>
+        <v>-8.283900616046095</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.073404987829649</v>
+        <v>-8.231217965806396</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.444046080753287</v>
+        <v>-8.972390765319359</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.525886306575588</v>
+        <v>-1.348723767351912</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.209350515825744</v>
+        <v>-7.650071776813916</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.004128216857461</v>
+        <v>-3.860561681696583</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.527884885596194</v>
+        <v>-1.401083420524614</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.493346859820437</v>
+        <v>-1.714584458951189</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3432564397614287</v>
+        <v>-0.03596553546499346</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.028788765153541</v>
+        <v>6.213929244584286</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.670780865455601</v>
+        <v>-1.864886927005894</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.54706900960345</v>
+        <v>1.498034121717859</v>
       </c>
     </row>
     <row r="19">
@@ -1016,7 +1016,7 @@
         <v>-0.1641660750954505</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.09037245442652929</v>
+        <v>0.09037245442652908</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.21198036132356</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4178629583565301</v>
+        <v>-0.4116933674130492</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3957613704718903</v>
+        <v>-0.40285893842549</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3004637799874433</v>
+        <v>-0.3202470208206279</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.05477547577428237</v>
+        <v>-0.04851356958535571</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3101065891245338</v>
+        <v>-0.3220680368763287</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1670409723854943</v>
+        <v>-0.1618043331622584</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.08946947169508646</v>
+        <v>-0.08484425646962994</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.09179593971818858</v>
+        <v>-0.1005690542323266</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.01549539192645259</v>
+        <v>0.0001017703497176718</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2575555868230389</v>
+        <v>0.2617193954118409</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.07893311691848455</v>
+        <v>-0.09185319842736063</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07359728517587466</v>
+        <v>0.07265068684416667</v>
       </c>
     </row>
     <row r="22">
@@ -1098,13 +1098,13 @@
         <v>-5.698540034828933</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4.715012318588924</v>
+        <v>4.715012318588929</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-3.149140282473603</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.665197765116641</v>
+        <v>4.665197765116639</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.46208338676594</v>
+        <v>-4.949667110100805</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09416838710860088</v>
+        <v>0.1589435804045984</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-11.17972030227438</v>
+        <v>-10.63193248458163</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3810891604823836</v>
+        <v>-0.0797509372969795</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.545592586219885</v>
+        <v>-6.877743684669727</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.603866097631824</v>
+        <v>1.362373551542705</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.34114912241498</v>
+        <v>3.679014247808885</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.088831087612345</v>
+        <v>8.39900997649656</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.007274778222128979</v>
+        <v>0.1835046281082285</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.701061693445059</v>
+        <v>9.436700401880934</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3668401534776385</v>
+        <v>0.3805814454767382</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.639823800289762</v>
+        <v>7.925502908006239</v>
       </c>
     </row>
     <row r="25">
@@ -1176,13 +1176,13 @@
         <v>-0.2502193882431741</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.207033291107126</v>
+        <v>0.2070332911071262</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.1807024452914079</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2676961228486189</v>
+        <v>0.2676961228486188</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3597887975886301</v>
+        <v>-0.3381632584487126</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.005368220224158755</v>
+        <v>0.002012921231457368</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4294786356367806</v>
+        <v>-0.4218624579318744</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.01566234548534403</v>
+        <v>-0.004041975847870488</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3393947292301978</v>
+        <v>-0.3560244250516422</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0837545790623762</v>
+        <v>0.07083558420654759</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3406727161525405</v>
+        <v>0.3611107014370117</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7703832073929573</v>
+        <v>0.8114048795544854</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.01235413360448304</v>
+        <v>0.004200941133048598</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4948463065432371</v>
+        <v>0.4792039678739698</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.02380054304006778</v>
+        <v>0.01821186883534579</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5029543799732175</v>
+        <v>0.5128784243759117</v>
       </c>
     </row>
     <row r="28">
@@ -1258,13 +1258,13 @@
         <v>-3.411219809800187</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3.263022832849499</v>
+        <v>3.263022832849494</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-2.719897029922364</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.318411898787878</v>
+        <v>2.318411898787884</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.881487226109846</v>
+        <v>-3.816086494603907</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.6390241319810335</v>
+        <v>-0.8023954139081049</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.745006316240405</v>
+        <v>-5.786524244201192</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.01879950253751</v>
+        <v>1.029792098456585</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.322998550022733</v>
+        <v>-4.284135413806369</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.9124937790768552</v>
+        <v>0.8571915237555027</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.1571356699945204</v>
+        <v>-0.2132789489158173</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.177465243289725</v>
+        <v>2.863513665318326</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.232756267853238</v>
+        <v>-1.346784847024913</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.291960297096652</v>
+        <v>5.152783213582233</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.304940878213967</v>
+        <v>-1.343827365852209</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.735457128489978</v>
+        <v>3.732465756398959</v>
       </c>
     </row>
     <row r="31">
@@ -1336,13 +1336,13 @@
         <v>-0.1173173228826655</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>0.1122205910493166</v>
+        <v>0.1122205910493165</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.1175494747039869</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1001979478825222</v>
+        <v>0.1001979478825225</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2164150072696019</v>
+        <v>-0.2156594459305575</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.03665876732552332</v>
+        <v>-0.04607097219305828</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1886449432723282</v>
+        <v>-0.189666486932618</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.03570925224040026</v>
+        <v>0.03523110677202713</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1800479404617813</v>
+        <v>-0.179373849192473</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03821383414260809</v>
+        <v>0.0359044023061058</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.009631771916683072</v>
+        <v>-0.01679672921927095</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2008247622002882</v>
+        <v>0.1788517917411802</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.04365259321081616</v>
+        <v>-0.04691690282193798</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1899436656722721</v>
+        <v>0.1856196804106711</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.05739228625624741</v>
+        <v>-0.05978699859331486</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1674212858634475</v>
+        <v>0.1678503706293717</v>
       </c>
     </row>
     <row r="34">
